--- a/Scrum/Proyect/Sprint-Backlog v2.xlsx
+++ b/Scrum/Proyect/Sprint-Backlog v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents2017\desktop\ReportGameStats\Scrum\Proyect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Proyect\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,18 +68,9 @@
     <t>Some sprint goal</t>
   </si>
   <si>
-    <t>Task 2 - Call SP From view</t>
-  </si>
-  <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>Task 1 -  Call SP from VB 8 hrs</t>
-  </si>
-  <si>
-    <t>Task 3 - Create Model from UI</t>
-  </si>
-  <si>
     <t>Task 4 -  Create github source</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>26.5 General method for extract all data from some leagues</t>
+  </si>
+  <si>
+    <t>Task 1 -  Extract data from MLB Stats 8 HRS</t>
+  </si>
+  <si>
+    <t>Task 2 - Extract series schedule</t>
+  </si>
+  <si>
+    <t>Task 3. Extract actual standing</t>
   </si>
 </sst>
 </file>
@@ -521,11 +521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1647354000"/>
-        <c:axId val="-1647352368"/>
+        <c:axId val="-591619232"/>
+        <c:axId val="-591618688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1647354000"/>
+        <c:axId val="-591619232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1647352368"/>
+        <c:crossAx val="-591618688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,7 +543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1647352368"/>
+        <c:axId val="-591618688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -554,7 +554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1647354000"/>
+        <c:crossAx val="-591619232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -952,16 +952,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1014,10 +1014,10 @@
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1056,10 +1056,10 @@
     <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1098,10 +1098,10 @@
     <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1185,10 +1185,10 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1227,10 +1227,10 @@
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1401,10 +1401,10 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
@@ -1760,15 +1760,15 @@
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
@@ -1776,10 +1776,10 @@
         <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1787,43 +1787,43 @@
         <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1845,53 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
 <xsd:schema targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f7c28edf12e174e47f2c7bd2736e8bd" ns2:_="" ns3:_="" ns4:_="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d93dc7d-5998-434b-bf34-aa89b432ec07" xmlns:ns3="$ListId:Shared Documents;" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v4">
 <xsd:import namespace="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
 <xsd:import namespace="$ListId:Shared Documents;"/>
@@ -2019,53 +2065,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2074,10 +2077,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0008E140-BD0E-4C41-947D-F18B1A1E4B6B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2097,36 +2105,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>